--- a/biology/Botanique/Glomus_iranicum_var._tenuihypharum/Glomus_iranicum_var._tenuihypharum.xlsx
+++ b/biology/Botanique/Glomus_iranicum_var._tenuihypharum/Glomus_iranicum_var._tenuihypharum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glomus iranicum var. tenuihypharum[1],[2] est une variété de champignons formateurs de mycorhizes arbusculaires (HMA), qui contribue à améliorer les conditions physico-chimiques du sol et à stimuler la croissance et la productivité de la majorité des plantes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glomus iranicum var. tenuihypharum, est une variété de champignons formateurs de mycorhizes arbusculaires (HMA), qui contribue à améliorer les conditions physico-chimiques du sol et à stimuler la croissance et la productivité de la majorité des plantes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, isolée d'un sol alcalin de pH 9,5 à forte présence de sels de Mg, Ca et Mn, parvient à une symbiose appropriée avec la majorité des plantes agricoles y compris dans les conditions de manipulation de l'agriculture intensive. Il produit un abondant mycélium extramatriciel, capable d'explorer un grand volume de sol. Il se reproduit à partir de spores générées à l'extérieur de la racine, ce qui facilite un meilleur transport des nutriments dans les racines vers la plante, et tolère des concentrations élevées de sels nutritionnels dans le sol, ce qui garantit une tolérance appropriée des protocoles de fertilisation de l'agriculture intensive. 
 En raison de ses caractéristiques biologiques, Symborg, l'entreprise qui a découvert cette espèce, a obtenu un brevet sur celle-ci, qui protège pour la première fois une espèce de HMA.
